--- a/research/articles-reports/sokoto-epidemiology-profile/resources/SEP_Worksheet_v001.xlsx
+++ b/research/articles-reports/sokoto-epidemiology-profile/resources/SEP_Worksheet_v001.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26516"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bd85aee009964a9a/Projects/Helpman/Health Programme/Sokoto Epidemiology/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b4ee021924ab543/HDI-GitHub/helpmaninstitute.github.io/research/articles-reports/sokoto-epidemiology-profile/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{49B7ABD5-9CB6-4327-BE8B-B48212919F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5054F264-79E8-486A-9BDA-91B98816AE66}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{49B7ABD5-9CB6-4327-BE8B-B48212919F2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8E00DA59-D70C-43EF-B09A-591A79B560EC}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="825" firstSheet="3" activeTab="3" xr2:uid="{E71250CC-1039-4872-A1A4-9BFE9E317440}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" tabRatio="825" activeTab="1" xr2:uid="{E71250CC-1039-4872-A1A4-9BFE9E317440}"/>
   </bookViews>
   <sheets>
     <sheet name="Deaths by cause" sheetId="1" r:id="rId1"/>
@@ -173,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="110">
   <si>
     <t>Summary of deaths by cause - Sokoto SSHP-II_Baseline_Scenario_No HSS2</t>
   </si>
@@ -485,13 +485,31 @@
   </si>
   <si>
     <t>HIV/AIDs</t>
+  </si>
+  <si>
+    <t>Communicable diseases</t>
+  </si>
+  <si>
+    <t>Infectious and parasitic diseases</t>
+  </si>
+  <si>
+    <t>Reproductive health</t>
+  </si>
+  <si>
+    <t>Nutritional deficiencies</t>
+  </si>
+  <si>
+    <t>Noncommunicable diseases</t>
+  </si>
+  <si>
+    <t>Injuries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,7 +641,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="1" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -641,7 +659,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1210,7 +1228,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1798,7 +1816,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2374,7 +2392,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2938,7 +2956,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5693,16 +5711,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>648256</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>111080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>244375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>105525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6194,19 +6212,19 @@
   <dimension ref="A1:N74"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="C54" activePane="bottomRight" state="frozen"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="C51" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomRight" activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="67.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="67.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -6217,7 +6235,7 @@
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -6245,7 +6263,7 @@
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
@@ -6268,7 +6286,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -6310,7 +6328,7 @@
         <v>81029</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -6335,7 +6353,7 @@
       <c r="I5" s="7"/>
       <c r="K5" s="7"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -6359,7 +6377,7 @@
       </c>
       <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -6386,7 +6404,7 @@
         <v>71580</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
@@ -6409,7 +6427,7 @@
         <v>2631</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -6432,7 +6450,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>10</v>
       </c>
@@ -6456,7 +6474,7 @@
       </c>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>11</v>
       </c>
@@ -6479,7 +6497,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -6508,7 +6526,7 @@
         <v>8455</v>
       </c>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -6537,12 +6555,12 @@
         <v>0.10434535783484924</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>15</v>
       </c>
@@ -6565,7 +6583,7 @@
         <v>3991</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>16</v>
       </c>
@@ -6588,7 +6606,7 @@
         <v>6522</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>17</v>
       </c>
@@ -6612,7 +6630,7 @@
       </c>
       <c r="K19" s="9"/>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -6635,7 +6653,7 @@
         <v>793</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>19</v>
       </c>
@@ -6658,7 +6676,7 @@
         <v>5441</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
@@ -6681,7 +6699,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>21</v>
       </c>
@@ -6704,7 +6722,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
@@ -6727,7 +6745,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>23</v>
       </c>
@@ -6750,7 +6768,7 @@
         <v>6315</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>24</v>
       </c>
@@ -6779,7 +6797,7 @@
         <v>27386</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -6808,12 +6826,12 @@
         <v>0.33797776104851351</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>27</v>
       </c>
@@ -6836,7 +6854,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>28</v>
       </c>
@@ -6859,7 +6877,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>29</v>
       </c>
@@ -6882,7 +6900,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -6905,7 +6923,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>31</v>
       </c>
@@ -6928,7 +6946,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>32</v>
       </c>
@@ -6951,7 +6969,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>33</v>
       </c>
@@ -6974,7 +6992,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>34</v>
       </c>
@@ -6997,7 +7015,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>35</v>
       </c>
@@ -7020,7 +7038,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>36</v>
       </c>
@@ -7049,7 +7067,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
@@ -7078,12 +7096,12 @@
         <v>2.1510817114860113E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>39</v>
       </c>
@@ -7106,7 +7124,7 @@
         <v>5632</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>40</v>
       </c>
@@ -7129,7 +7147,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>41</v>
       </c>
@@ -7152,7 +7170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>42</v>
       </c>
@@ -7175,7 +7193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>43</v>
       </c>
@@ -7198,7 +7216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>44</v>
       </c>
@@ -7221,7 +7239,7 @@
         <v>1566</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>45</v>
       </c>
@@ -7244,7 +7262,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>46</v>
       </c>
@@ -7267,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>47</v>
       </c>
@@ -7290,7 +7308,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>48</v>
       </c>
@@ -7313,7 +7331,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>49</v>
       </c>
@@ -7336,7 +7354,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>50</v>
       </c>
@@ -7359,7 +7377,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>51</v>
       </c>
@@ -7382,7 +7400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>52</v>
       </c>
@@ -7405,7 +7423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>53</v>
       </c>
@@ -7428,7 +7446,7 @@
         <v>1854</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>54</v>
       </c>
@@ -7451,7 +7469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>55</v>
       </c>
@@ -7474,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
@@ -7482,7 +7500,7 @@
       <c r="F60" s="5"/>
       <c r="G60" s="5"/>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B61" s="5">
         <v>0</v>
       </c>
@@ -7502,7 +7520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:7">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>56</v>
       </c>
@@ -7511,7 +7529,7 @@
         <v>6543</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>57</v>
       </c>
@@ -7540,7 +7558,7 @@
         <v>12863</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>58</v>
       </c>
@@ -7569,12 +7587,12 @@
         <v>0.15874563427908528</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>60</v>
       </c>
@@ -7597,7 +7615,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>61</v>
       </c>
@@ -7609,7 +7627,7 @@
         <v>0.18963949507916131</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>62</v>
       </c>
@@ -7621,7 +7639,7 @@
         <v>0.20664848095849381</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>63</v>
       </c>
@@ -7634,7 +7652,7 @@
         <v>4.2843388960205391E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>64</v>
       </c>
@@ -7663,7 +7681,7 @@
         <v>2.8705772007552852E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>65</v>
       </c>
@@ -7699,20 +7717,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83376253-CACC-40DC-B280-AC3C9D955128}">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="22.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.3828125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>66</v>
       </c>
@@ -7723,7 +7741,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>69</v>
       </c>
@@ -7739,7 +7757,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>71</v>
       </c>
@@ -7756,7 +7774,7 @@
         <v>74784</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>72</v>
       </c>
@@ -7769,7 +7787,7 @@
         <v>9.5849379546427041E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>73</v>
       </c>
@@ -7782,7 +7800,7 @@
         <v>4.2843388960205391E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>74</v>
       </c>
@@ -7793,6 +7811,36 @@
       <c r="C6" s="10">
         <f>B6/$I$3</f>
         <v>0.75496095421480536</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -7814,15 +7862,15 @@
       <selection activeCell="C11" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="19.84375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15234375" style="1"/>
+    <col min="3" max="3" width="9.15234375" style="10"/>
+    <col min="4" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>14</v>
       </c>
@@ -7833,7 +7881,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -7846,7 +7894,7 @@
         <v>2.1704231683041159E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -7859,7 +7907,7 @@
         <v>2.4272779811211714E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -7872,7 +7920,7 @@
         <v>4.1610479676362937E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
@@ -7885,7 +7933,7 @@
         <v>4.8866628138444744E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>22</v>
       </c>
@@ -7898,7 +7946,7 @@
         <v>9.2788801130161178E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
@@ -7911,7 +7959,7 @@
         <v>0.19668657291465999</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -7924,7 +7972,7 @@
         <v>0.26815642458100558</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -7937,7 +7985,7 @@
         <v>0.30398767096898477</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -7950,7 +7998,7 @@
         <v>0.31169331535349643</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -7972,19 +8020,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E364DA91-4B8F-477A-A69B-A7688968BB86}">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.140625" style="10"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="38.3046875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15234375" style="1"/>
+    <col min="3" max="3" width="9.15234375" style="10"/>
+    <col min="4" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="11" t="s">
         <v>38</v>
       </c>
@@ -7995,7 +8043,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>47</v>
       </c>
@@ -8008,7 +8056,7 @@
         <v>3.2314849742235634E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -8021,7 +8069,7 @@
         <v>3.809883062995096E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>50</v>
       </c>
@@ -8034,7 +8082,7 @@
         <v>6.3372312334967942E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>48</v>
       </c>
@@ -8047,7 +8095,7 @@
         <v>6.7647428643279259E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -8060,7 +8108,7 @@
         <v>8.5376587451276242E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>40</v>
       </c>
@@ -8073,7 +8121,7 @@
         <v>0.17729158807996984</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>44</v>
       </c>
@@ -8086,7 +8134,7 @@
         <v>0.17829749779957249</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>53</v>
       </c>
@@ -8099,7 +8147,7 @@
         <v>0.35760090531874766</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>77</v>
       </c>
@@ -8125,13 +8173,13 @@
       <selection activeCell="C11" sqref="A1:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="25.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>26</v>
       </c>
@@ -8142,7 +8190,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -8155,7 +8203,7 @@
         <v>8.3547557840616959E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -8168,7 +8216,7 @@
         <v>1.7994858611825194E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -8181,7 +8229,7 @@
         <v>8.4190231362467866E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
@@ -8194,7 +8242,7 @@
         <v>8.6760925449871462E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
@@ -8207,7 +8255,7 @@
         <v>0.10539845758354756</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -8220,7 +8268,7 @@
         <v>0.10861182519280206</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>29</v>
       </c>
@@ -8233,7 +8281,7 @@
         <v>0.15552699228791775</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>30</v>
       </c>
@@ -8246,7 +8294,7 @@
         <v>0.16838046272493573</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -8259,7 +8307,7 @@
         <v>0.2647814910025707</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>79</v>
       </c>
@@ -8285,15 +8333,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.4"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1"/>
+    <col min="1" max="1" width="32.3046875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.15234375" style="1"/>
     <col min="3" max="3" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="16384" width="9.15234375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
@@ -8304,7 +8352,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>83</v>
       </c>
@@ -8317,7 +8365,7 @@
         <v>7.9249768854840839E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
@@ -8330,7 +8378,7 @@
         <v>2.5227843085457669E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>85</v>
       </c>
@@ -8343,7 +8391,7 @@
         <v>5.349359397701757E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>86</v>
       </c>
@@ -8356,7 +8404,7 @@
         <v>5.9965658433496237E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>87</v>
       </c>
@@ -8369,7 +8417,7 @@
         <v>7.1456874917448163E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>88</v>
       </c>
@@ -8382,7 +8430,7 @@
         <v>0.16219786025624092</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>89</v>
       </c>
@@ -8395,7 +8443,7 @@
         <v>0.30854576674151368</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>90</v>
       </c>
@@ -8408,7 +8456,7 @@
         <v>0.31118742570334168</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>79</v>
       </c>
@@ -8434,19 +8482,19 @@
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.65"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.3828125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="14" t="s">
         <v>91</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>92</v>
       </c>
@@ -8464,7 +8512,7 @@
       </c>
       <c r="G2" s="14"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>97</v>
       </c>
@@ -8472,7 +8520,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>98</v>
       </c>
@@ -8490,7 +8538,7 @@
         <v>80056</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>99</v>
       </c>
@@ -8505,7 +8553,7 @@
         <v>3.0911901081916537E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>62</v>
       </c>
@@ -8520,7 +8568,7 @@
         <v>7.9250720461095103E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -8535,7 +8583,7 @@
         <v>4.323245759893582E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>100</v>
       </c>
@@ -8550,7 +8598,7 @@
         <v>4.6232876712328765E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>84</v>
       </c>
@@ -8565,7 +8613,7 @@
         <v>6.6666666666666666E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>101</v>
       </c>
@@ -8573,7 +8621,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>102</v>
       </c>
@@ -8581,7 +8629,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>103</v>
       </c>

--- a/research/articles-reports/sokoto-epidemiology-profile/resources/SEP_Worksheet_v001.xlsx
+++ b/research/articles-reports/sokoto-epidemiology-profile/resources/SEP_Worksheet_v001.xlsx
@@ -7720,7 +7720,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
